--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1027">
   <si>
     <t>anchor score</t>
   </si>
@@ -61,823 +61,823 @@
     <t>19</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>stays</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>kept</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>stays</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>bitch</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>expose</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3460,10 +3460,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3521,7 +3521,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02955655826735908</v>
+        <v>0.02997794446752248</v>
       </c>
       <c r="C3">
         <v>147</v>
@@ -3542,7 +3542,7 @@
         <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.01079971707833819</v>
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02111182733382792</v>
+        <v>0.02141281747680177</v>
       </c>
       <c r="C4">
         <v>75</v>
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01090210075625627</v>
+        <v>0.01105753139773765</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3642,7 +3642,7 @@
         <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.008216282243426827</v>
@@ -3671,7 +3671,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01005124026001911</v>
+        <v>0.01019454023093542</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3692,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>286</v>
       </c>
       <c r="K6">
         <v>0.007669304810247667</v>
@@ -3701,19 +3701,19 @@
         <v>176</v>
       </c>
       <c r="M6">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N6">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01005124026001911</v>
+        <v>0.01019454023093542</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -3742,7 +3742,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K7">
         <v>0.00764748597567936</v>
@@ -3771,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008085214313471227</v>
+        <v>0.008200484762291476</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="K8">
         <v>0.007150647677948585</v>
@@ -3801,19 +3801,19 @@
         <v>153</v>
       </c>
       <c r="M8">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3821,7 +3821,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008085214313471227</v>
+        <v>0.008200484762291476</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -3842,7 +3842,7 @@
         <v>1882</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.006641812795040673</v>
@@ -3871,28 +3871,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008085214313471227</v>
+        <v>0.007818855434523457</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K10">
         <v>0.006253059998131595</v>
@@ -3921,28 +3921,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0077089493739278</v>
+        <v>0.007818855434523457</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>928</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11">
         <v>0.006007745718799523</v>
@@ -3971,28 +3971,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0077089493739278</v>
+        <v>0.007818855434523457</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12">
-        <v>928</v>
+        <v>2989</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <v>0.005895441503793587</v>
@@ -4021,28 +4021,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0077089493739278</v>
+        <v>0.007818855434523457</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="E13">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F13">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>2989</v>
+        <v>2748</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K13">
         <v>0.005867029572140956</v>
@@ -4071,28 +4071,28 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0077089493739278</v>
+        <v>0.006993396903135242</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>359</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2748</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>0.005664156983210122</v>
@@ -4121,7 +4121,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006895093934082802</v>
+        <v>0.006993396903135242</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15">
         <v>0.005664156983210122</v>
@@ -4171,13 +4171,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006895093934082802</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K16">
         <v>0.00563457893778874</v>
@@ -4221,7 +4221,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4239,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K17">
         <v>0.005604844804443474</v>
@@ -4271,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4292,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18">
         <v>0.005170644248257658</v>
@@ -4321,7 +4321,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>0.004767098451965724</v>
@@ -4371,13 +4371,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006449769787740278</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4389,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>0.004696470866744837</v>
@@ -4421,7 +4421,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>0.004660755741068984</v>
@@ -4471,7 +4471,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -4489,10 +4489,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.004326071353945517</v>
@@ -4521,7 +4521,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.004287271723969977</v>
@@ -4571,7 +4571,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -4589,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K24">
         <v>0.004248117737407592</v>
@@ -4621,13 +4621,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005971326508395691</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>288</v>
@@ -4671,28 +4671,28 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005971326508395691</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K26">
         <v>0.004046669209300347</v>
@@ -4721,7 +4721,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>289</v>
@@ -4771,7 +4771,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>290</v>
@@ -4821,7 +4821,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>291</v>
@@ -4871,7 +4871,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -4889,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K30">
         <v>0.00374648769110096</v>
@@ -4921,7 +4921,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -4939,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K31">
         <v>0.00374648769110096</v>
@@ -4971,28 +4971,28 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>589</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K32">
         <v>0.003701617956420611</v>
@@ -5021,28 +5021,28 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1090</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K33">
         <v>0.003701617956420611</v>
@@ -5071,28 +5071,28 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="E34">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F34">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>589</v>
+        <v>158</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K34">
         <v>0.003610205873180157</v>
@@ -5121,28 +5121,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
       <c r="D35">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1090</v>
+        <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K35">
         <v>0.003516418262691954</v>
@@ -5171,28 +5171,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005451050378128137</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K36">
         <v>0.003468573607971726</v>
@@ -5221,13 +5221,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005451050378128137</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K37">
         <v>0.003320906397520336</v>
@@ -5271,7 +5271,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5289,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K38">
         <v>0.003270202558988663</v>
@@ -5321,7 +5321,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5339,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>0.003270202558988663</v>
@@ -5371,7 +5371,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>292</v>
@@ -5421,7 +5421,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5439,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41">
         <v>0.003166360012421992</v>
@@ -5471,7 +5471,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5489,10 +5489,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K42">
         <v>0.003058994390271744</v>
@@ -5521,7 +5521,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K43">
         <v>0.003003872859399762</v>
@@ -5571,7 +5571,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>293</v>
@@ -5621,7 +5621,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -5639,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K45">
         <v>0.002890478006643105</v>
@@ -5671,7 +5671,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -5689,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K46">
         <v>0.002890478006643105</v>
@@ -5721,7 +5721,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -5739,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K47">
         <v>0.002832078491605061</v>
@@ -5771,7 +5771,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5821,28 +5821,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>782</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K49">
         <v>0.002711508719156366</v>
@@ -5871,7 +5871,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5889,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K50">
         <v>0.00264916685200942</v>
@@ -5921,25 +5921,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="E51">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F51">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>782</v>
+        <v>34</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>295</v>
@@ -5971,7 +5971,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>296</v>
@@ -6021,25 +6021,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F53">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>297</v>
@@ -6071,25 +6071,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>298</v>
@@ -6121,28 +6121,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004875567677708179</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>309</v>
+        <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K55">
         <v>0.002519860305896837</v>
@@ -6171,25 +6171,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004875567677708179</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>299</v>
@@ -6221,7 +6221,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>300</v>
@@ -6271,7 +6271,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>301</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6339,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K59">
         <v>0.002452651919241497</v>
@@ -6371,7 +6371,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6389,10 +6389,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K60">
         <v>0.002452651919241497</v>
@@ -6421,7 +6421,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6439,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K61">
         <v>0.002452651919241497</v>
@@ -6471,7 +6471,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>302</v>
@@ -6521,7 +6521,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6539,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K63">
         <v>0.002452651919241497</v>
@@ -6571,7 +6571,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6589,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K64">
         <v>0.002452651919241497</v>
@@ -6621,28 +6621,28 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K65">
         <v>0.002383549225982862</v>
@@ -6671,25 +6671,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>6</v>
+        <v>803</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>303</v>
@@ -6721,25 +6721,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="E67">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F67">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>304</v>
@@ -6771,28 +6771,28 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="E68">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F68">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>803</v>
+        <v>525</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K68">
         <v>0.002383549225982862</v>
@@ -6821,25 +6821,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
       <c r="D69">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="E69">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F69">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>305</v>
@@ -6871,25 +6871,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
       <c r="D70">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E70">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F70">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>306</v>
@@ -6921,28 +6921,28 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E71">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F71">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>158</v>
+        <v>784</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K71">
         <v>0.002312382405314484</v>
@@ -6971,28 +6971,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C72">
         <v>3</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E72">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F72">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>520</v>
+        <v>13</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K72">
         <v>0.002238954636461512</v>
@@ -7021,25 +7021,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="F73">
-        <v>0.04000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>784</v>
+        <v>100</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>307</v>
@@ -7071,25 +7071,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>308</v>
@@ -7121,28 +7121,28 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C75">
         <v>3</v>
       </c>
       <c r="D75">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K75">
         <v>0.002163035676972758</v>
@@ -7171,7 +7171,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7189,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K76">
         <v>0.002163035676972758</v>
@@ -7221,13 +7221,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.004222365466765583</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7239,10 +7239,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K77">
         <v>0.002163035676972758</v>
@@ -7271,13 +7271,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.004222365466765583</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>309</v>
@@ -7321,7 +7321,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>310</v>
@@ -7371,7 +7371,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7389,10 +7389,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K80">
         <v>0.002084353332710532</v>
@@ -7421,7 +7421,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>311</v>
@@ -7471,7 +7471,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>312</v>
@@ -7521,7 +7521,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7539,10 +7539,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K83">
         <v>0.002084353332710532</v>
@@ -7571,7 +7571,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>313</v>
@@ -7621,7 +7621,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>314</v>
@@ -7671,7 +7671,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>315</v>
@@ -7721,25 +7721,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>316</v>
@@ -7771,7 +7771,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7789,10 +7789,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K88">
         <v>0.002002581906266507</v>
@@ -7821,25 +7821,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E89">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F89">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>317</v>
@@ -7871,28 +7871,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K90">
         <v>0.002002581906266507</v>
@@ -7921,25 +7921,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E91">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
       <c r="F91">
-        <v>0.22</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>318</v>
@@ -7971,25 +7971,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F92">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>319</v>
@@ -8021,28 +8021,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E93">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F93">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>365</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K93">
         <v>0.002002581906266507</v>
@@ -8071,25 +8071,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="E94">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F94">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>320</v>
@@ -8121,25 +8121,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F95">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>365</v>
+        <v>97</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>321</v>
@@ -8171,28 +8171,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="E96">
-        <v>0.98</v>
+        <v>0.6</v>
       </c>
       <c r="F96">
-        <v>0.02000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K96">
         <v>0.001917326202561917</v>
@@ -8221,28 +8221,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F97">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K97">
         <v>0.001917326202561917</v>
@@ -8271,7 +8271,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8289,7 +8289,7 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>288</v>
+        <v>43</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>322</v>
@@ -8321,28 +8321,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F99">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K99">
         <v>0.001917326202561917</v>
@@ -8371,25 +8371,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E100">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="F100">
-        <v>0.4</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>323</v>
@@ -8421,25 +8421,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F101">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>324</v>
@@ -8471,25 +8471,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="F102">
-        <v>0.08999999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>325</v>
@@ -8521,25 +8521,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E103">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F103">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>326</v>
@@ -8571,25 +8571,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E104">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="F104">
-        <v>0.4</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>327</v>
@@ -8621,28 +8621,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F105">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K105">
         <v>0.001828098805523104</v>
@@ -8671,25 +8671,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="E106">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F106">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
       </c>
       <c r="H106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>328</v>
@@ -8721,25 +8721,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F107">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>161</v>
+        <v>13</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>329</v>
@@ -8771,25 +8771,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F108">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
       </c>
       <c r="H108">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>330</v>
@@ -8821,28 +8821,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E109">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F109">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K109">
         <v>0.001828098805523104</v>
@@ -8871,28 +8871,28 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E110">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F110">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K110">
         <v>0.001828098805523104</v>
@@ -8921,28 +8921,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F111">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K111">
         <v>0.001828098805523104</v>
@@ -8971,25 +8971,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="F112">
-        <v>0.12</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
       </c>
       <c r="H112">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>331</v>
@@ -9021,28 +9021,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K113">
         <v>0.001734286803985863</v>
@@ -9071,7 +9071,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>332</v>
@@ -9121,25 +9121,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E115">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F115">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>333</v>
@@ -9171,25 +9171,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E116">
-        <v>0.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F116">
-        <v>0.6699999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>334</v>
@@ -9221,25 +9221,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E117">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F117">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>335</v>
@@ -9271,25 +9271,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>336</v>
@@ -9321,28 +9321,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F119">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K119">
         <v>0.001734286803985863</v>
@@ -9371,7 +9371,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -9389,10 +9389,10 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K120">
         <v>0.001734286803985863</v>
@@ -9421,28 +9421,28 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K121">
         <v>0.001734286803985863</v>
@@ -9471,7 +9471,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>337</v>
@@ -9521,7 +9521,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -9539,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K123">
         <v>0.001635101279494331</v>
@@ -9571,13 +9571,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.003447546967041401</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>338</v>
@@ -9621,13 +9621,13 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.003447546967041401</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>339</v>
@@ -9671,7 +9671,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9689,10 +9689,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K126">
         <v>0.001635101279494331</v>
@@ -9721,7 +9721,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>340</v>
@@ -9771,7 +9771,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>341</v>
@@ -9821,7 +9821,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>342</v>
@@ -9871,7 +9871,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>343</v>
@@ -9921,7 +9921,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>344</v>
@@ -9971,7 +9971,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9992,7 +9992,7 @@
         <v>6</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K132">
         <v>0.001529497195135872</v>
@@ -10021,7 +10021,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10039,10 +10039,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K133">
         <v>0.001529497195135872</v>
@@ -10071,7 +10071,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>345</v>
@@ -10121,7 +10121,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>346</v>
@@ -10171,7 +10171,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>347</v>
@@ -10221,7 +10221,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>348</v>
@@ -10271,7 +10271,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10289,10 +10289,10 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K138">
         <v>0.001529497195135872</v>
@@ -10321,7 +10321,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>349</v>
@@ -10371,7 +10371,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>350</v>
@@ -10421,28 +10421,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K141">
         <v>0.001529497195135872</v>
@@ -10471,25 +10471,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>351</v>
@@ -10521,28 +10521,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F143">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K143">
         <v>0.001529497195135872</v>
@@ -10571,25 +10571,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>352</v>
@@ -10621,25 +10621,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>353</v>
@@ -10671,7 +10671,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10689,10 +10689,10 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K146">
         <v>0.00141603924580253</v>
@@ -10721,28 +10721,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K147">
         <v>0.00141603924580253</v>
@@ -10771,7 +10771,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10789,10 +10789,10 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K148">
         <v>0.00141603924580253</v>
@@ -10821,7 +10821,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>354</v>
@@ -10871,28 +10871,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K150">
         <v>0.00141603924580253</v>
@@ -10921,7 +10921,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10939,10 +10939,10 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K151">
         <v>0.00141603924580253</v>
@@ -10971,7 +10971,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>355</v>
@@ -11021,28 +11021,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K153">
         <v>0.00141603924580253</v>
@@ -11071,25 +11071,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>356</v>
@@ -11121,25 +11121,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E155">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>357</v>
@@ -11171,25 +11171,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>358</v>
@@ -11221,28 +11221,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K157">
         <v>0.00141603924580253</v>
@@ -11271,25 +11271,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>359</v>
@@ -11321,25 +11321,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>360</v>
@@ -11371,7 +11371,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>361</v>
@@ -11421,7 +11421,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11439,10 +11439,10 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K161">
         <v>0.00141603924580253</v>
@@ -11471,7 +11471,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>362</v>
@@ -11521,25 +11521,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>363</v>
@@ -11571,25 +11571,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>364</v>
@@ -11621,25 +11621,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>365</v>
@@ -11671,28 +11671,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K166">
         <v>0.00141603924580253</v>
@@ -11721,25 +11721,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>366</v>
@@ -11771,19 +11771,19 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E168">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F168">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
@@ -11792,7 +11792,7 @@
         <v>35</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K168">
         <v>0.00141603924580253</v>
@@ -11821,25 +11821,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>367</v>
@@ -11871,25 +11871,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>368</v>
@@ -11921,25 +11921,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>369</v>
@@ -11971,25 +11971,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>370</v>
@@ -12021,25 +12021,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>371</v>
@@ -12071,25 +12071,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>372</v>
@@ -12121,7 +12121,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>373</v>
@@ -12171,25 +12171,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>374</v>
@@ -12221,7 +12221,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>375</v>
@@ -12271,7 +12271,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>376</v>
@@ -12321,25 +12321,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>377</v>
@@ -12371,25 +12371,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>378</v>
@@ -12421,7 +12421,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12471,25 +12471,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E182">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F182">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>380</v>
@@ -12521,25 +12521,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F183">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>381</v>
@@ -12571,25 +12571,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F184">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>382</v>
@@ -12621,28 +12621,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E185">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F185">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K185">
         <v>0.001292661062064414</v>
@@ -12671,7 +12671,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>383</v>
@@ -12721,25 +12721,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F187">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>350</v>
+        <v>27</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>384</v>
@@ -12771,25 +12771,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>385</v>
@@ -12821,25 +12821,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E189">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F189">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>386</v>
@@ -12871,7 +12871,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>387</v>
@@ -12921,25 +12921,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>388</v>
@@ -12971,7 +12971,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>389</v>
@@ -13021,25 +13021,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>390</v>
@@ -13071,25 +13071,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>391</v>
@@ -13121,25 +13121,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>392</v>
@@ -13171,25 +13171,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>393</v>
@@ -13221,28 +13221,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
+      </c>
+      <c r="H197">
         <v>12</v>
       </c>
-      <c r="E197">
-        <v>0.92</v>
-      </c>
-      <c r="F197">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197">
-        <v>154</v>
-      </c>
       <c r="J197" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K197">
         <v>0.001292661062064414</v>
@@ -13271,25 +13271,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>394</v>
@@ -13321,25 +13321,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>395</v>
@@ -13371,25 +13371,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>396</v>
@@ -13421,25 +13421,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>397</v>
@@ -13471,28 +13471,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K202">
         <v>0.001292661062064414</v>
@@ -13521,25 +13521,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>398</v>
@@ -13571,25 +13571,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>399</v>
@@ -13621,28 +13621,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E205">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K205">
         <v>0.001292661062064414</v>
@@ -13671,28 +13671,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K206">
         <v>0.001292661062064414</v>
@@ -13721,25 +13721,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>400</v>
@@ -13771,28 +13771,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K208">
         <v>0.001292661062064414</v>
@@ -13821,25 +13821,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>401</v>
@@ -13871,25 +13871,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>402</v>
@@ -13921,25 +13921,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>403</v>
@@ -13971,25 +13971,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>404</v>
@@ -14021,25 +14021,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>405</v>
@@ -14071,25 +14071,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>406</v>
@@ -14121,25 +14121,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>407</v>
@@ -14171,28 +14171,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K216">
         <v>0.001156191202657242</v>
@@ -14221,25 +14221,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>408</v>
@@ -14271,28 +14271,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K218">
         <v>0.001156191202657242</v>
@@ -14321,25 +14321,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>409</v>
@@ -14371,25 +14371,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>410</v>
@@ -14421,25 +14421,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>411</v>
@@ -14471,28 +14471,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K222">
         <v>0.001156191202657242</v>
@@ -14521,25 +14521,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>412</v>
@@ -14571,25 +14571,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E224">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F224">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>413</v>
@@ -14621,25 +14621,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>414</v>
@@ -14671,25 +14671,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F226">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>415</v>
@@ -14721,25 +14721,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>416</v>
@@ -14771,25 +14771,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>417</v>
@@ -14821,28 +14821,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K229">
         <v>0.001156191202657242</v>
@@ -14871,25 +14871,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>418</v>
@@ -14921,25 +14921,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>419</v>
@@ -14971,25 +14971,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>420</v>
@@ -15021,25 +15021,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>421</v>
@@ -15071,25 +15071,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E234">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F234">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>422</v>
@@ -15121,25 +15121,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>423</v>
@@ -15171,25 +15171,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>424</v>
@@ -15221,25 +15221,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>425</v>
@@ -15271,25 +15271,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>426</v>
@@ -15321,25 +15321,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F239">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>427</v>
@@ -15371,25 +15371,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E240">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F240">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>428</v>
@@ -15421,25 +15421,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F241">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>429</v>
@@ -15471,25 +15471,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E242">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F242">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>430</v>
@@ -15521,25 +15521,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="E243">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F243">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>431</v>
@@ -15571,25 +15571,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E244">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F244">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>432</v>
@@ -15621,13 +15621,13 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E245">
         <v>0.99</v>
@@ -15639,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>433</v>
@@ -15671,25 +15671,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>434</v>
@@ -15721,25 +15721,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>435</v>
@@ -15771,25 +15771,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>436</v>
@@ -15821,7 +15821,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>437</v>
@@ -15871,25 +15871,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E250">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F250">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>438</v>
@@ -15921,25 +15921,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>439</v>
@@ -15971,25 +15971,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>440</v>
@@ -16021,28 +16021,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K253">
         <v>0.001156191202657242</v>
@@ -16071,28 +16071,28 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K254">
         <v>0.001156191202657242</v>
@@ -16121,7 +16121,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16139,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>441</v>
@@ -16171,28 +16171,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E256">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F256">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K256">
         <v>0.001156191202657242</v>
@@ -16221,25 +16221,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>442</v>
@@ -16271,25 +16271,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>443</v>
@@ -16321,25 +16321,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>444</v>
@@ -16371,25 +16371,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>445</v>
@@ -16421,25 +16421,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>446</v>
@@ -16471,25 +16471,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>447</v>
@@ -16521,7 +16521,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16539,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>448</v>
@@ -16571,7 +16571,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>449</v>
@@ -16621,25 +16621,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>450</v>
@@ -16671,7 +16671,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16689,10 +16689,10 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K266">
         <v>0.001001290953133254</v>
@@ -16721,25 +16721,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E267">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F267">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>451</v>
@@ -16771,7 +16771,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>452</v>
@@ -16821,25 +16821,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E269">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>453</v>
@@ -16871,7 +16871,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16889,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>454</v>
@@ -16921,7 +16921,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16939,7 +16939,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>455</v>
@@ -16971,7 +16971,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -16989,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>456</v>
@@ -17021,7 +17021,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17039,7 +17039,7 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>457</v>
@@ -17071,7 +17071,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>458</v>
@@ -17121,7 +17121,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17171,7 +17171,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17189,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>460</v>
@@ -17221,7 +17221,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17239,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>461</v>
@@ -17271,7 +17271,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>462</v>
@@ -17321,25 +17321,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279">
-        <v>5</v>
+        <v>459</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>463</v>
@@ -17367,30 +17367,6 @@
       </c>
     </row>
     <row r="280" spans="1:17">
-      <c r="A280" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B280">
-        <v>0.002437783838854089</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280" t="b">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>56</v>
-      </c>
       <c r="J280" s="1" t="s">
         <v>464</v>
       </c>
@@ -17417,30 +17393,6 @@
       </c>
     </row>
     <row r="281" spans="1:17">
-      <c r="A281" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B281">
-        <v>0.002437783838854089</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <v>5</v>
-      </c>
-      <c r="E281">
-        <v>0.8</v>
-      </c>
-      <c r="F281">
-        <v>0.2</v>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281">
-        <v>459</v>
-      </c>
       <c r="J281" s="1" t="s">
         <v>465</v>
       </c>
@@ -17572,7 +17524,7 @@
     </row>
     <row r="286" spans="1:17">
       <c r="J286" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K286">
         <v>0.001001290953133254</v>
@@ -17702,7 +17654,7 @@
     </row>
     <row r="291" spans="10:17">
       <c r="J291" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K291">
         <v>0.001001290953133254</v>
@@ -17858,7 +17810,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K297">
         <v>0.001001290953133254</v>
@@ -17910,7 +17862,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K299">
         <v>0.001001290953133254</v>
@@ -17962,7 +17914,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K301">
         <v>0.001001290953133254</v>
@@ -18066,7 +18018,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K305">
         <v>0.001001290953133254</v>
@@ -18118,7 +18070,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K307">
         <v>0.001001290953133254</v>
@@ -18664,7 +18616,7 @@
     </row>
     <row r="328" spans="10:17">
       <c r="J328" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K328">
         <v>0.001001290953133254</v>
@@ -18742,7 +18694,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K331">
         <v>0.001001290953133254</v>
@@ -18794,7 +18746,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K333">
         <v>0.001001290953133254</v>
@@ -19054,7 +19006,7 @@
     </row>
     <row r="343" spans="10:17">
       <c r="J343" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K343">
         <v>0.001001290953133254</v>
@@ -19080,7 +19032,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K344">
         <v>0.001001290953133254</v>
@@ -19184,7 +19136,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K348">
         <v>0.001001290953133254</v>
@@ -19418,7 +19370,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K357">
         <v>0.001001290953133254</v>
@@ -19834,7 +19786,7 @@
     </row>
     <row r="373" spans="10:17">
       <c r="J373" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K373">
         <v>0.0008175506397471657</v>
@@ -19938,7 +19890,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K377">
         <v>0.0008175506397471657</v>
@@ -20094,7 +20046,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K383">
         <v>0.0008175506397471657</v>
@@ -20770,7 +20722,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K409">
         <v>0.0008175506397471657</v>
@@ -20822,7 +20774,7 @@
     </row>
     <row r="411" spans="10:17">
       <c r="J411" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K411">
         <v>0.0008175506397471657</v>
@@ -21134,7 +21086,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K423">
         <v>0.0008175506397471657</v>
@@ -21472,7 +21424,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K436">
         <v>0.0008175506397471657</v>
@@ -21524,7 +21476,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K438">
         <v>0.0008175506397471657</v>
@@ -21888,7 +21840,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K452">
         <v>0.0008175506397471657</v>
@@ -22096,7 +22048,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K460">
         <v>0.0008175506397471657</v>
@@ -22200,7 +22152,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K464">
         <v>0.0008175506397471657</v>
@@ -22512,7 +22464,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K476">
         <v>0.0008175506397471657</v>
@@ -22668,7 +22620,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K482">
         <v>0.0008175506397471657</v>
@@ -22824,7 +22776,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K488">
         <v>0.0008175506397471657</v>
@@ -23058,7 +23010,7 @@
     </row>
     <row r="497" spans="10:17">
       <c r="J497" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K497">
         <v>0.0008175506397471657</v>
@@ -23110,7 +23062,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K499">
         <v>0.0008175506397471657</v>
@@ -23500,7 +23452,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K514">
         <v>0.0008175506397471657</v>
@@ -23630,7 +23582,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K519">
         <v>0.0008175506397471657</v>
@@ -23838,7 +23790,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K527">
         <v>0.0005780956013286211</v>
@@ -25242,7 +25194,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K581">
         <v>0.0005780956013286211</v>
@@ -26152,7 +26104,7 @@
     </row>
     <row r="616" spans="10:17">
       <c r="J616" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K616">
         <v>0.0005780956013286211</v>
@@ -26620,7 +26572,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K634">
         <v>0.0005780956013286211</v>
@@ -27270,7 +27222,7 @@
     </row>
     <row r="659" spans="10:17">
       <c r="J659" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K659">
         <v>0.0005780956013286211</v>
@@ -27686,7 +27638,7 @@
     </row>
     <row r="675" spans="10:17">
       <c r="J675" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K675">
         <v>0.0005780956013286211</v>
@@ -28908,7 +28860,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K722">
         <v>0.0005780956013286211</v>
@@ -28960,7 +28912,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K724">
         <v>0.0005780956013286211</v>
@@ -30338,7 +30290,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K777">
         <v>0.0005780956013286211</v>
@@ -30676,7 +30628,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K790">
         <v>0.0005780956013286211</v>
@@ -31014,7 +30966,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K803">
         <v>0.0005780956013286211</v>
